--- a/biology/Botanique/Pueblo_Mountain_Park/Pueblo_Mountain_Park.xlsx
+++ b/biology/Botanique/Pueblo_Mountain_Park/Pueblo_Mountain_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pueblo Mountain Park est un parc américain dans le comté de Pueblo, au Colorado. Agrémenté de bâtiments construits dans le style Pueblo Revival, il est inscrit au Registre national des lieux historiques depuis le 6 décembre 1994.
 </t>
